--- a/RETO PRUEBAS MANUALES/Plan de Calidad.xlsx
+++ b/RETO PRUEBAS MANUALES/Plan de Calidad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\io\Desktop\RETO QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\io\Desktop\RETO PRUEBAS MANUALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B57FDEE-6395-4BCD-A78E-0790226A0551}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A1FEA-60E9-4025-B2CA-9F11349EF94E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Externo</t>
-  </si>
-  <si>
-    <t>Estudiante de Sofka U</t>
   </si>
   <si>
     <t>Release</t>
@@ -261,6 +258,9 @@
 Tener instalado en el equipo donde se realizaran las pruebas la aplicación SoapUI
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Francy Julieth Ramirez Rodriguez </t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -538,9 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,9 +592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1502,99 +1496,99 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" s="23" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:26" s="22" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="I7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+    </row>
+    <row r="8" spans="1:26" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>18</v>
+      <c r="H8" s="17" t="s">
+        <v>32</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>36</v>
+      <c r="J8" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="M8" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1611,44 +1605,44 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="135" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>39</v>
+      <c r="L9" s="31" t="s">
+        <v>19</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="33" t="s">
+      <c r="M9" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1665,19 +1659,19 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
